--- a/data/testdata2.xlsx
+++ b/data/testdata2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>geometry</t>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>long</t>
         </is>
       </c>
     </row>
@@ -421,6 +426,12 @@
           <t>I liked the service.</t>
         </is>
       </c>
+      <c r="G2">
+        <v>51.49489840192774</v>
+      </c>
+      <c r="H2">
+        <v>22.29478214988676</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -449,6 +460,12 @@
           <t>I did not like the service.</t>
         </is>
       </c>
+      <c r="G3">
+        <v>51.51747351595876</v>
+      </c>
+      <c r="H3">
+        <v>22.87752898348675</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -477,6 +494,12 @@
           <t>The service was bad.</t>
         </is>
       </c>
+      <c r="G4">
+        <v>51.35926925804664</v>
+      </c>
+      <c r="H4">
+        <v>23.13826376441266</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -505,6 +528,12 @@
           <t>Amazing</t>
         </is>
       </c>
+      <c r="G5">
+        <v>51.18779003796155</v>
+      </c>
+      <c r="H5">
+        <v>23.30224936998742</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -533,6 +562,12 @@
           <t>Poor</t>
         </is>
       </c>
+      <c r="G6">
+        <v>51.91422525518728</v>
+      </c>
+      <c r="H6">
+        <v>22.75723503997885</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -561,6 +596,12 @@
           <t>Some great things happened while others did not.</t>
         </is>
       </c>
+      <c r="G7">
+        <v>51.20802685458219</v>
+      </c>
+      <c r="H7">
+        <v>22.20658452203885</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -589,6 +630,12 @@
           <t>The team was very nice and responded to all of my questions</t>
         </is>
       </c>
+      <c r="G8">
+        <v>50.71040793349207</v>
+      </c>
+      <c r="H8">
+        <v>23.76508031956194</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -617,6 +664,12 @@
           <t>I wish there had been more offered.</t>
         </is>
       </c>
+      <c r="G9">
+        <v>51.16999651925251</v>
+      </c>
+      <c r="H9">
+        <v>22.05100615087258</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -645,6 +698,12 @@
           <t>I was treated badly</t>
         </is>
       </c>
+      <c r="G10">
+        <v>50.64470642650343</v>
+      </c>
+      <c r="H10">
+        <v>23.94365607769354</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -673,6 +732,12 @@
           <t>Where should I begin. It was challenging to figure out the process, and I didn't like the person leading the team.</t>
         </is>
       </c>
+      <c r="G11">
+        <v>51.41546239949702</v>
+      </c>
+      <c r="H11">
+        <v>23.00517383597197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -701,6 +766,12 @@
           <t>I received what I expected on time.</t>
         </is>
       </c>
+      <c r="G12">
+        <v>50.62701967269065</v>
+      </c>
+      <c r="H12">
+        <v>17.81982068961821</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -729,6 +800,12 @@
           <t>People were rude.</t>
         </is>
       </c>
+      <c r="G13">
+        <v>50.80673270892427</v>
+      </c>
+      <c r="H13">
+        <v>17.90891477621639</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -757,6 +834,12 @@
           <t>There were too many people making it a very crowded place.</t>
         </is>
       </c>
+      <c r="G14">
+        <v>50.78045610800787</v>
+      </c>
+      <c r="H14">
+        <v>18.41014202307533</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -785,6 +868,12 @@
           <t>The lighting was suboptimal.</t>
         </is>
       </c>
+      <c r="G15">
+        <v>50.2812732369096</v>
+      </c>
+      <c r="H15">
+        <v>17.3608745972779</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -813,6 +902,12 @@
           <t>I would have appreciated greater followup.</t>
         </is>
       </c>
+      <c r="G16">
+        <v>50.61381219648121</v>
+      </c>
+      <c r="H16">
+        <v>18.48453345185443</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -841,6 +936,12 @@
           <t>Yes, the team delivered what they said they would.</t>
         </is>
       </c>
+      <c r="G17">
+        <v>50.83085615613511</v>
+      </c>
+      <c r="H17">
+        <v>18.3055591326338</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -869,6 +970,12 @@
           <t>I didn't appreciate the location of the delivery.</t>
         </is>
       </c>
+      <c r="G18">
+        <v>50.13057068635611</v>
+      </c>
+      <c r="H18">
+        <v>17.98146048871213</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -897,6 +1004,12 @@
           <t>More support is needed for the future.</t>
         </is>
       </c>
+      <c r="G19">
+        <v>50.75981115478528</v>
+      </c>
+      <c r="H19">
+        <v>17.84635658013399</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -925,6 +1038,12 @@
           <t>I was told that I didn't get anything.</t>
         </is>
       </c>
+      <c r="G20">
+        <v>50.5307667938487</v>
+      </c>
+      <c r="H20">
+        <v>17.84467408631567</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -952,6 +1071,12 @@
         <is>
           <t>I forgot my ID card, but I was able to sort it out with a friendly staff member.</t>
         </is>
+      </c>
+      <c r="G21">
+        <v>50.59698929285619</v>
+      </c>
+      <c r="H21">
+        <v>17.31948890237313</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata2.xlsx
+++ b/data/testdata2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian Calhoon\Documents\Shiny-sandbox\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F08FD-AAD1-461F-97D1-F7D7EA4225E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDE72AC-7779-4D69-A15B-11407A70794F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,13 +127,13 @@
     <t>type_visit</t>
   </si>
   <si>
+    <t>in person</t>
+  </si>
+  <si>
     <t>remote</t>
   </si>
   <si>
     <t>telephone</t>
-  </si>
-  <si>
-    <t>in person</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -546,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <v>51.494898401927742</v>
+        <v>51.017072163872307</v>
       </c>
       <c r="I2">
-        <v>22.29478214988676</v>
+        <v>23.120677981530889</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -575,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>51.517473515958763</v>
+        <v>51.272834285081039</v>
       </c>
       <c r="I3">
-        <v>22.877528983486751</v>
+        <v>23.530046585907559</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -589,7 +589,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -604,10 +604,10 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>51.359269258046638</v>
+        <v>50.924707274634471</v>
       </c>
       <c r="I4">
-        <v>23.13826376441266</v>
+        <v>23.57208838696484</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="H5">
-        <v>51.187790037961548</v>
+        <v>50.352570386755133</v>
       </c>
       <c r="I5">
-        <v>23.302249369987418</v>
+        <v>23.0367900782588</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -662,10 +662,10 @@
         <v>17</v>
       </c>
       <c r="H6">
-        <v>51.914225255187283</v>
+        <v>51.500203784733401</v>
       </c>
       <c r="I6">
-        <v>22.757235039978848</v>
+        <v>23.242301873611751</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -676,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -691,10 +691,10 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <v>51.208026854582187</v>
+        <v>51.745560668223028</v>
       </c>
       <c r="I7">
-        <v>22.206584522038849</v>
+        <v>21.981437128182289</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -720,10 +720,10 @@
         <v>19</v>
       </c>
       <c r="H8">
-        <v>50.710407933492071</v>
+        <v>51.0593340078442</v>
       </c>
       <c r="I8">
-        <v>23.765080319561939</v>
+        <v>22.303551423913682</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -734,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -749,10 +749,10 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>51.169996519252507</v>
+        <v>50.907543058822753</v>
       </c>
       <c r="I9">
-        <v>22.051006150872581</v>
+        <v>21.869525479984471</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -778,10 +778,10 @@
         <v>21</v>
       </c>
       <c r="H10">
-        <v>50.644706426503433</v>
+        <v>51.14307074211343</v>
       </c>
       <c r="I10">
-        <v>23.943656077693539</v>
+        <v>22.343834556371121</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -807,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="H11">
-        <v>51.415462399497017</v>
+        <v>50.658138312150683</v>
       </c>
       <c r="I11">
-        <v>23.00517383597197</v>
+        <v>23.505911203015479</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -821,7 +821,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -836,10 +836,10 @@
         <v>24</v>
       </c>
       <c r="H12">
-        <v>50.627019672690651</v>
+        <v>50.880834883470058</v>
       </c>
       <c r="I12">
-        <v>17.819820689618211</v>
+        <v>18.422176636689269</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -850,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -865,10 +865,10 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>50.806732708924272</v>
+        <v>50.507818443482783</v>
       </c>
       <c r="I13">
-        <v>17.908914776216388</v>
+        <v>17.571407256687799</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -894,10 +894,10 @@
         <v>26</v>
       </c>
       <c r="H14">
-        <v>50.780456108007868</v>
+        <v>50.980668289595918</v>
       </c>
       <c r="I14">
-        <v>18.410142023075331</v>
+        <v>18.095307612639751</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -923,10 +923,10 @@
         <v>27</v>
       </c>
       <c r="H15">
-        <v>50.281273236909598</v>
+        <v>50.71794890254948</v>
       </c>
       <c r="I15">
-        <v>17.360874597277899</v>
+        <v>17.916384626405531</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -937,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -952,10 +952,10 @@
         <v>28</v>
       </c>
       <c r="H16">
-        <v>50.613812196481213</v>
+        <v>50.488825581167838</v>
       </c>
       <c r="I16">
-        <v>18.484533451854428</v>
+        <v>17.582184525120379</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -981,10 +981,10 @@
         <v>29</v>
       </c>
       <c r="H17">
-        <v>50.830856156135113</v>
+        <v>50.836435447861817</v>
       </c>
       <c r="I17">
-        <v>18.3055591326338</v>
+        <v>18.407097530726791</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -995,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1010,10 +1010,10 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <v>50.130570686356108</v>
+        <v>50.509877149414663</v>
       </c>
       <c r="I18">
-        <v>17.981460488712131</v>
+        <v>17.71591072261964</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1039,10 +1039,10 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>50.759811154785282</v>
+        <v>50.762965383963412</v>
       </c>
       <c r="I19">
-        <v>17.846356580133989</v>
+        <v>17.285414031365271</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1053,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1068,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="H20">
-        <v>50.530766793848699</v>
+        <v>51.007158326857272</v>
       </c>
       <c r="I20">
-        <v>17.844674086315671</v>
+        <v>18.45217481885318</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1082,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -1097,10 +1097,10 @@
         <v>33</v>
       </c>
       <c r="H21">
-        <v>50.596989292856193</v>
+        <v>50.743971629512039</v>
       </c>
       <c r="I21">
-        <v>17.319488902373131</v>
+        <v>17.332107248490988</v>
       </c>
     </row>
   </sheetData>
